--- a/DateTables/Datas/__tables__.xlsx
+++ b/DateTables/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F6F78-258E-4DC2-A54F-2072DCE2A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A766A2-5312-4FD5-8B1A-A042EA8C169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shop_id,shop_type</t>
+    <t>shop_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DateTables/Datas/__tables__.xlsx
+++ b/DateTables/Datas/__tables__.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A766A2-5312-4FD5-8B1A-A042EA8C169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23DBAD6-F27C-4853-B301-04876452C1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16305" yWindow="2685" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -121,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ショップ.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,6 +141,26 @@
   </si>
   <si>
     <t>shop_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ショップ/ショップ.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>レベル.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +608,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -606,8 +633,8 @@
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -621,10 +648,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
